--- a/Theorie 6.xlsx
+++ b/Theorie 6.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Uni\Code\Sysprog\Aufgabe 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladislaw\Desktop\GitHub\Sysprog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13638"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1338,24 +1338,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="19" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.83984375" customWidth="1"/>
+    <col min="4" max="4" width="7.578125" customWidth="1"/>
+    <col min="5" max="19" width="5.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="88" t="s">
         <v>15</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C5" s="90" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C9" s="13" t="s">
         <v>5</v>
       </c>
@@ -1649,13 +1649,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="88" t="s">
         <v>15</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="90" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="11" t="s">
         <v>3</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="11" t="s">
         <v>4</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C19" s="13" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C20" s="46" t="s">
         <v>13</v>
       </c>
@@ -2000,13 +2000,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="22" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C25" s="48" t="s">
         <v>1</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="50" t="s">
         <v>2</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="52" t="s">
         <v>3</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="52" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C29" s="54" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="41"/>
       <c r="D30" s="21">
         <v>1</v>
@@ -2351,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="18" t="s">
         <v>10</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="18"/>
       <c r="D32" s="17">
         <v>3</v>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="18"/>
       <c r="D33" s="17">
         <v>4</v>
@@ -2494,7 +2494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="18"/>
       <c r="D34" s="17">
         <v>5</v>
@@ -2533,7 +2533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C35" s="19"/>
       <c r="D35" s="20">
         <v>6</v>
@@ -2570,13 +2570,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="15" t="s">
         <v>0</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C40" s="42" t="s">
         <v>1</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="50" t="s">
         <v>2</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="52" t="s">
         <v>3</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="52" t="s">
         <v>4</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C44" s="54" t="s">
         <v>5</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="41"/>
       <c r="D45" s="21" t="s">
         <v>14</v>
@@ -2921,7 +2921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="18" t="s">
         <v>7</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="18"/>
       <c r="D47" s="66">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C48" s="19"/>
       <c r="D48" s="67">
         <v>3</v>
@@ -3064,13 +3064,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="55" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E55" s="69"/>
       <c r="F55" s="68">
         <v>3</v>
@@ -3090,8 +3090,8 @@
       </c>
       <c r="N55" s="71"/>
     </row>
-    <row r="56" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="57" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D57" t="s">
         <v>18</v>
       </c>
@@ -3114,8 +3114,8 @@
       </c>
       <c r="N57" s="71"/>
     </row>
-    <row r="58" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="59" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D59" t="s">
         <v>19</v>
       </c>
@@ -3138,8 +3138,8 @@
       </c>
       <c r="N59" s="71"/>
     </row>
-    <row r="60" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="61" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D61" t="s">
         <v>20</v>
       </c>
@@ -3162,8 +3162,8 @@
       </c>
       <c r="N61" s="71"/>
     </row>
-    <row r="62" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="63" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D63" t="s">
         <v>21</v>
       </c>
@@ -3184,8 +3184,8 @@
       </c>
       <c r="N63" s="71"/>
     </row>
-    <row r="64" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="65" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D65" t="s">
         <v>22</v>
       </c>
@@ -3208,8 +3208,8 @@
       </c>
       <c r="N65" s="71"/>
     </row>
-    <row r="66" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="67" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D67" t="s">
         <v>23</v>
       </c>
@@ -3230,8 +3230,8 @@
       <c r="M67" s="70"/>
       <c r="N67" s="71"/>
     </row>
-    <row r="68" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="69" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D69" t="s">
         <v>24</v>
       </c>
@@ -3252,8 +3252,8 @@
       <c r="M69" s="70"/>
       <c r="N69" s="71"/>
     </row>
-    <row r="70" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="71" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D71" t="s">
         <v>25</v>
       </c>
@@ -3274,13 +3274,13 @@
       <c r="M71" s="70"/>
       <c r="N71" s="71"/>
     </row>
-    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E74" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="76" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E76" s="69"/>
       <c r="F76" s="68">
         <v>3</v>
@@ -3300,8 +3300,8 @@
       </c>
       <c r="N76" s="71"/>
     </row>
-    <row r="77" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="78" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D78" t="s">
         <v>18</v>
       </c>
@@ -3324,8 +3324,8 @@
       </c>
       <c r="N78" s="71"/>
     </row>
-    <row r="79" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="80" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D80" t="s">
         <v>19</v>
       </c>
@@ -3348,8 +3348,8 @@
       </c>
       <c r="N80" s="71"/>
     </row>
-    <row r="81" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="82" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D82" t="s">
         <v>20</v>
       </c>
@@ -3372,8 +3372,8 @@
       </c>
       <c r="N82" s="71"/>
     </row>
-    <row r="83" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="84" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D84" t="s">
         <v>21</v>
       </c>
@@ -3396,8 +3396,8 @@
       </c>
       <c r="N84" s="71"/>
     </row>
-    <row r="85" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="86" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D86" t="s">
         <v>22</v>
       </c>
@@ -3420,8 +3420,8 @@
       </c>
       <c r="N86" s="71"/>
     </row>
-    <row r="87" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="88" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D88" t="s">
         <v>23</v>
       </c>
@@ -3442,8 +3442,8 @@
       </c>
       <c r="N88" s="71"/>
     </row>
-    <row r="89" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="90" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D90" t="s">
         <v>24</v>
       </c>
@@ -3464,8 +3464,8 @@
       </c>
       <c r="N90" s="71"/>
     </row>
-    <row r="91" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="92" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D92" t="s">
         <v>25</v>
       </c>
@@ -3486,13 +3486,13 @@
       </c>
       <c r="N92" s="71"/>
     </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E96" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="98" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E98" s="69"/>
       <c r="F98" s="68">
         <v>3</v>
@@ -3512,8 +3512,8 @@
       </c>
       <c r="N98" s="71"/>
     </row>
-    <row r="99" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="100" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D100" t="s">
         <v>18</v>
       </c>
@@ -3536,8 +3536,8 @@
       </c>
       <c r="N100" s="71"/>
     </row>
-    <row r="101" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="102" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D102" t="s">
         <v>19</v>
       </c>
@@ -3560,8 +3560,8 @@
       </c>
       <c r="N102" s="71"/>
     </row>
-    <row r="103" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="104" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D104" t="s">
         <v>20</v>
       </c>
@@ -3584,8 +3584,8 @@
       </c>
       <c r="N104" s="71"/>
     </row>
-    <row r="105" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="106" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D106" t="s">
         <v>21</v>
       </c>
@@ -3608,8 +3608,8 @@
       </c>
       <c r="N106" s="71"/>
     </row>
-    <row r="107" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="108" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D108" t="s">
         <v>22</v>
       </c>
@@ -3632,8 +3632,8 @@
       </c>
       <c r="N108" s="71"/>
     </row>
-    <row r="109" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="110" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D110" t="s">
         <v>23</v>
       </c>
@@ -3654,8 +3654,8 @@
       <c r="M110" s="70"/>
       <c r="N110" s="71"/>
     </row>
-    <row r="111" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="112" spans="4:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D112" t="s">
         <v>24</v>
       </c>
@@ -3676,8 +3676,8 @@
       <c r="M112" s="70"/>
       <c r="N112" s="71"/>
     </row>
-    <row r="113" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="114" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D114" t="s">
         <v>25</v>
       </c>
@@ -3698,13 +3698,13 @@
       <c r="M114" s="70"/>
       <c r="N114" s="71"/>
     </row>
-    <row r="117" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E117" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="119" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E119" s="69"/>
       <c r="F119" s="68">
         <v>3</v>
@@ -3724,8 +3724,8 @@
       </c>
       <c r="N119" s="71"/>
     </row>
-    <row r="120" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="121" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D121" t="s">
         <v>18</v>
       </c>
@@ -3748,8 +3748,8 @@
       </c>
       <c r="N121" s="71"/>
     </row>
-    <row r="122" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="123" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D123" t="s">
         <v>19</v>
       </c>
@@ -3772,8 +3772,8 @@
       </c>
       <c r="N123" s="71"/>
     </row>
-    <row r="124" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="125" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D125" s="72" t="s">
         <v>20</v>
       </c>
@@ -3799,8 +3799,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="127" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D127" t="s">
         <v>21</v>
       </c>
@@ -3823,8 +3823,8 @@
       </c>
       <c r="N127" s="71"/>
     </row>
-    <row r="128" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="129" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D129" t="s">
         <v>22</v>
       </c>
@@ -3847,8 +3847,8 @@
       </c>
       <c r="N129" s="71"/>
     </row>
-    <row r="130" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="131" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D131" t="s">
         <v>23</v>
       </c>
@@ -3869,8 +3869,8 @@
       </c>
       <c r="N131" s="71"/>
     </row>
-    <row r="132" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="133" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D133" s="72" t="s">
         <v>24</v>
       </c>
@@ -3894,8 +3894,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="135" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D135" s="72" t="s">
         <v>25</v>
       </c>
@@ -3919,8 +3919,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="140" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D140" s="87" t="s">
         <v>31</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E141" s="73"/>
       <c r="F141" s="73"/>
       <c r="G141" s="73"/>
@@ -3954,7 +3954,7 @@
       <c r="I141" s="73"/>
       <c r="J141" s="73"/>
     </row>
-    <row r="142" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D142" s="87" t="s">
         <v>33</v>
       </c>
@@ -3973,7 +3973,7 @@
       <c r="I142" s="73"/>
       <c r="J142" s="73"/>
     </row>
-    <row r="143" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E143" s="73"/>
       <c r="F143" s="73"/>
       <c r="G143" s="73"/>
@@ -3981,7 +3981,7 @@
       <c r="I143" s="73"/>
       <c r="J143" s="73"/>
     </row>
-    <row r="144" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D144" s="87" t="s">
         <v>35</v>
       </c>
@@ -4002,8 +4002,8 @@
       </c>
       <c r="J144" s="73"/>
     </row>
-    <row r="149" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="75" t="s">
         <v>36</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="78" t="s">
         <v>38</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="78">
         <v>1</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="78">
         <v>2</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="78">
         <v>3</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="78">
         <v>4</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="78">
         <v>5</v>
       </c>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="D156" s="79"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="78" t="s">
         <v>39</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="78">
         <v>7</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="78">
         <v>8</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="78" t="s">
         <v>47</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="78">
         <v>10</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="78">
         <v>11</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="78">
         <v>12</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="78">
         <v>13</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="78">
         <v>14</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="78" t="s">
         <v>40</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="78">
         <v>16</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="78">
         <v>17</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="78">
         <v>18</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="78">
         <v>19</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="D170" s="79"/>
     </row>
-    <row r="171" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B171" s="80">
         <v>20</v>
       </c>
